--- a/Outputs/Discharge/Rating Curve.xlsx
+++ b/Outputs/Discharge/Rating Curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FFA0D6-2FB5-4B7A-9A56-B9ED81FF9C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40168C9A-BD67-4AEA-B26C-54F9639AA6FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Waterfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.30699- Golden Rod- not accurate </t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,6 +658,34 @@
         <v>2.6025E-2</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B10">
+        <v>6.0824999999999997E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="K10">
+        <v>9.9900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>43672</v>
+      </c>
+      <c r="H11">
+        <v>6.0475000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>2.8049999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Outputs/Discharge/Rating Curve.xlsx
+++ b/Outputs/Discharge/Rating Curve.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40168C9A-BD67-4AEA-B26C-54F9639AA6FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDCD5BE-3EE4-4E1E-B589-A67584367500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Curve" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +72,12 @@
   <si>
     <t xml:space="preserve">.30699- Golden Rod- not accurate </t>
   </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>Wtr Lvl</t>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,12 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +153,4849 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rating Curve'!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Station 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water Level (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Rating Curve'!$E$3:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.010425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>.0351- YSI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>.30699- Golden Rod- not accurate </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Rating Curve'!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>1.7172422E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7287991999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.394E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0618999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ECD-4998-BC92-0B8C4A7876D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="65093263"/>
+        <c:axId val="2102550767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65093263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Discharge</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (m^3/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2102550767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2102550767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Level</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65093263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.55531496062992E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.87122462817147861"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rating Curve'!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Station 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water Lvl (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Rating Curve'!$H$3:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.04485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.039275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Extra Tributary Diluted Salt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.051075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.060475</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Rating Curve'!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.2709999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9405651999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21025099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D1F-4579-81F9-C4C5E89B6B90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63309903"/>
+        <c:axId val="57129807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63309903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57129807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57129807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63309903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31487489063867019"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.55531496062992E-2"/>
+          <c:y val="0.1902314814814815"/>
+          <c:w val="0.87122462817147861"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rating Curve'!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Station 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water lvl (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Rating Curve'!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.027405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bad Slug</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05055</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.010188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.026025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02805</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Rating Curve'!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.1679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5479652999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35543999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22878999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.215701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96AB-4AA5-AE8A-B7DE2E3E138C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="55694175"/>
+        <c:axId val="63083375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55694175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63083375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="63083375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55694175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Station 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wtr Lvl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4850000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9274999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5449999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1075000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.2709999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9405651999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FAF-4AA5-95A3-55C36C7E2B92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="57446879"/>
+        <c:axId val="58599679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="57446879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58599679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58599679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57446879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Station 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water lvl (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7404999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0549999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.1679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5479652999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35543999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22878999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAD9-433E-B2CF-6BAD06618438}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2094783311"/>
+        <c:axId val="64402623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094783311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64402623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64402623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094783311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563EA648-5236-48B0-B18A-9EC886EBBEF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>803275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1FAB2C-5D11-42BE-91E1-6CE8939F9B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1558925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBB161B-2EA0-41C7-8CB0-5412F421C113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907F8CC3-807B-47FE-9D73-A1FEE7C41C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4836C600-4F31-47A0-8677-6472B75A4FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,8 +5263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,7 +5484,7 @@
       <c r="H8">
         <v>2.41E-2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>0.21025099999999999</v>
       </c>
       <c r="K8">
@@ -689,5 +5546,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4DB8B8-E623-41EF-BA75-0EC65D58E61B}">
+  <dimension ref="G1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>4.4850000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>7.2709999999999997E-3</v>
+      </c>
+      <c r="K3">
+        <v>2.01E-2</v>
+      </c>
+      <c r="L3">
+        <v>8.1679999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>3.9274999999999997E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.9405651999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>2.7404999999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>1.5479652999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>6.5449999999999994E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.1087</v>
+      </c>
+      <c r="L5">
+        <v>0.35543999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>5.1075000000000002E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K6">
+        <v>5.0549999999999998E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.22878999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>